--- a/DATA_goal/Junction_Flooding_252.xlsx
+++ b/DATA_goal/Junction_Flooding_252.xlsx
@@ -451,10 +451,10 @@
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
@@ -655,103 +655,103 @@
         <v>41684.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>21.62</v>
+        <v>2.16</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>14.46</v>
+        <v>1.45</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.46</v>
+        <v>0.45</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>45.36</v>
+        <v>4.54</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>37.51</v>
+        <v>3.75</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>17.01</v>
+        <v>1.7</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>55.7</v>
+        <v>5.57</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>26.18</v>
+        <v>2.62</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>11.07</v>
+        <v>1.11</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>17.02</v>
+        <v>1.7</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>18.05</v>
+        <v>1.8</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>18.88</v>
+        <v>1.89</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.43</v>
+        <v>0.54</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>16.92</v>
+        <v>1.69</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>23.75</v>
+        <v>2.37</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>14.24</v>
+        <v>1.42</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.74</v>
+        <v>0.37</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.46</v>
+        <v>0.25</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>250.17</v>
+        <v>25.02</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>47.09</v>
+        <v>4.71</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>15.62</v>
+        <v>1.56</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>31.15</v>
+        <v>3.11</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>16.25</v>
+        <v>1.62</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.41</v>
+        <v>0.24</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>27.66</v>
+        <v>2.77</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>13.79</v>
+        <v>1.38</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>12.75</v>
+        <v>1.28</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>14.55</v>
+        <v>1.45</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>18.41</v>
+        <v>1.84</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.64</v>
+        <v>0.36</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>49.22</v>
+        <v>4.92</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>8.640000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>19.52</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41684.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.44</v>
+        <v>0.14</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.33</v>
+        <v>0.03</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.35</v>
+        <v>0.14</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.47</v>
+        <v>0.25</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.05</v>
+        <v>0.2</v>
       </c>
       <c r="G3" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AE3" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AF3" s="4" t="n">
         <v>1.14</v>
       </c>
-      <c r="H3" s="4" t="n">
-        <v>11.96</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AF3" s="4" t="n">
-        <v>11.39</v>
-      </c>
       <c r="AG3" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.32</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41684.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>18.26</v>
+        <v>1.83</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>13.24</v>
+        <v>1.32</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.4</v>
+        <v>0.14</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>39.28</v>
+        <v>3.93</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>32.48</v>
+        <v>3.25</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>14.37</v>
+        <v>1.44</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>51.03</v>
+        <v>5.1</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>22.11</v>
+        <v>2.21</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>9.699999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>14.55</v>
+        <v>1.45</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>15.87</v>
+        <v>1.59</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>16.62</v>
+        <v>1.66</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.59</v>
+        <v>0.46</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>14.29</v>
+        <v>1.43</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>20.22</v>
+        <v>2.02</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>12.13</v>
+        <v>1.21</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.09</v>
+        <v>0.11</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.87</v>
+        <v>0.09</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>210.11</v>
+        <v>21.01</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>39.79</v>
+        <v>3.98</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>13.19</v>
+        <v>1.32</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>26.61</v>
+        <v>2.66</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>14.22</v>
+        <v>1.42</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.99</v>
+        <v>0.2</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>25.11</v>
+        <v>2.51</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>11.65</v>
+        <v>1.16</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>10.45</v>
+        <v>1.04</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>12.22</v>
+        <v>1.22</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>16.57</v>
+        <v>1.66</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>45.84</v>
+        <v>4.58</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>7.37</v>
+        <v>0.74</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>16.49</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41684.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>4.23</v>
+        <v>0.42</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.82</v>
+        <v>0.28</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>8.880000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>7.33</v>
+        <v>0.73</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.33</v>
+        <v>0.33</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>18.18</v>
+        <v>1.82</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>5.12</v>
+        <v>0.51</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.2</v>
+        <v>0.22</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>3.2</v>
+        <v>0.32</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>3.67</v>
+        <v>0.37</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.73</v>
+        <v>0.37</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.07</v>
+        <v>0.11</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3.31</v>
+        <v>0.33</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>4.69</v>
+        <v>0.47</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>2.99</v>
+        <v>0.3</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.35</v>
+        <v>0.04</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>43.09</v>
+        <v>4.31</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>9.57</v>
+        <v>0.96</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>3.05</v>
+        <v>0.31</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>6.28</v>
+        <v>0.63</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>3.39</v>
+        <v>0.34</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>8.24</v>
+        <v>0.82</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>2.7</v>
+        <v>0.27</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.54</v>
+        <v>0.25</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>2.94</v>
+        <v>0.29</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>3.77</v>
+        <v>0.38</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>16.91</v>
+        <v>1.69</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.62</v>
+        <v>0.16</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>3.82</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41684.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>15.66</v>
+        <v>1.57</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>11.49</v>
+        <v>1.15</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.96</v>
+        <v>0.1</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>33.81</v>
+        <v>3.38</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>27.95</v>
+        <v>2.8</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>12.33</v>
+        <v>1.23</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>44.72</v>
+        <v>4.47</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>18.96</v>
+        <v>1.9</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>8.380000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>12.53</v>
+        <v>1.25</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>13.67</v>
+        <v>1.37</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>14.33</v>
+        <v>1.43</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>3.93</v>
+        <v>0.39</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>12.26</v>
+        <v>1.23</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>17.39</v>
+        <v>1.74</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>10.36</v>
+        <v>1.04</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.68</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>179.21</v>
+        <v>17.92</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>34.16</v>
+        <v>3.42</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>11.31</v>
+        <v>1.13</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>22.91</v>
+        <v>2.29</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>12.23</v>
+        <v>1.22</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>1.7</v>
+        <v>0.17</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>21.92</v>
+        <v>2.19</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>9.99</v>
+        <v>1</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>8.9</v>
+        <v>0.89</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>10.44</v>
+        <v>1.04</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>14.3</v>
+        <v>1.43</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>40.26</v>
+        <v>4.03</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>6.35</v>
+        <v>0.64</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>14.14</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41684.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>23.35</v>
+        <v>2.33</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>17.31</v>
+        <v>1.73</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>1.14</v>
+        <v>0.11</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>50.58</v>
+        <v>5.06</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>41.81</v>
+        <v>4.18</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>18.37</v>
+        <v>1.84</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>69.93000000000001</v>
+        <v>6.99</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>28.27</v>
+        <v>2.83</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>12.6</v>
+        <v>1.26</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>18.8</v>
+        <v>1.88</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>20.39</v>
+        <v>2.04</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>21.46</v>
+        <v>2.15</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>5.87</v>
+        <v>0.59</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>18.27</v>
+        <v>1.83</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>26.04</v>
+        <v>2.6</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>15.32</v>
+        <v>1.53</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.65</v>
+        <v>0.06</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>270.8</v>
+        <v>27.08</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>51.08</v>
+        <v>5.11</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>16.87</v>
+        <v>1.69</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>34.42</v>
+        <v>3.44</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>18.22</v>
+        <v>1.82</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>2.47</v>
+        <v>0.25</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>34.22</v>
+        <v>3.42</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>14.9</v>
+        <v>1.49</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>13.18</v>
+        <v>1.32</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>15.48</v>
+        <v>1.55</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>21.38</v>
+        <v>2.14</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>63.48</v>
+        <v>6.35</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>9.529999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>21.09</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41684.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>4.52</v>
+        <v>0.45</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>3.2</v>
+        <v>0.32</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>9.640000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>7.96</v>
+        <v>0.8</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>3.56</v>
+        <v>0.36</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>20.58</v>
+        <v>2.06</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>5.47</v>
+        <v>0.55</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>2.44</v>
+        <v>0.24</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>3.52</v>
+        <v>0.35</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>3.95</v>
+        <v>0.4</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>4.08</v>
+        <v>0.41</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>1.15</v>
+        <v>0.11</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>3.53</v>
+        <v>0.35</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>5.08</v>
+        <v>0.51</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>3.09</v>
+        <v>0.31</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>46.54</v>
+        <v>4.65</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>10.25</v>
+        <v>1.02</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>3.26</v>
+        <v>0.33</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>6.85</v>
+        <v>0.68</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>3.62</v>
+        <v>0.36</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>9.26</v>
+        <v>0.93</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>2.88</v>
+        <v>0.29</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>2.63</v>
+        <v>0.26</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>3.06</v>
+        <v>0.31</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>4.11</v>
+        <v>0.41</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>19.18</v>
+        <v>1.92</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>1.78</v>
+        <v>0.18</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>4.08</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41684.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>18.06</v>
+        <v>1.81</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>13.4</v>
+        <v>1.34</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.87</v>
+        <v>0.09</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>39.13</v>
+        <v>3.91</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>32.35</v>
+        <v>3.23</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>14.22</v>
+        <v>1.42</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>52.03</v>
+        <v>5.2</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>21.87</v>
+        <v>2.19</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>9.74</v>
+        <v>0.97</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>14.54</v>
+        <v>1.45</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>15.78</v>
+        <v>1.58</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>16.61</v>
+        <v>1.66</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>4.54</v>
+        <v>0.45</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>14.14</v>
+        <v>1.41</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>20.13</v>
+        <v>2.01</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>11.85</v>
+        <v>1.19</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>207.83</v>
+        <v>20.78</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>39.42</v>
+        <v>3.94</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>13.05</v>
+        <v>1.3</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>26.56</v>
+        <v>2.66</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>14.09</v>
+        <v>1.41</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.92</v>
+        <v>0.19</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>25.57</v>
+        <v>2.56</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>11.53</v>
+        <v>1.15</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>10.19</v>
+        <v>1.02</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>11.98</v>
+        <v>1.2</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>16.55</v>
+        <v>1.65</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>46.93</v>
+        <v>4.69</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>7.37</v>
+        <v>0.74</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>16.31</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41684.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>10.47</v>
+        <v>1.05</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>7.72</v>
+        <v>0.77</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>22.64</v>
+        <v>2.26</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>18.71</v>
+        <v>1.87</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>8.24</v>
+        <v>0.82</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>34.41</v>
+        <v>3.44</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>12.68</v>
+        <v>1.27</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>5.64</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>8.390000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>9.16</v>
+        <v>0.92</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>9.609999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>2.63</v>
+        <v>0.26</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>8.199999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>11.68</v>
+        <v>1.17</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>6.92</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>117.44</v>
+        <v>11.74</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>23.02</v>
+        <v>2.3</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>7.57</v>
+        <v>0.76</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>15.47</v>
+        <v>1.55</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>8.199999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.13</v>
+        <v>0.11</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>16.39</v>
+        <v>1.64</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>6.68</v>
+        <v>0.67</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>5.94</v>
+        <v>0.59</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>6.97</v>
+        <v>0.7</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>9.59</v>
+        <v>0.96</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>31.39</v>
+        <v>3.14</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>4.25</v>
+        <v>0.43</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>9.460000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_252.xlsx
+++ b/DATA_goal/Junction_Flooding_252.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44933.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.54</v>
+        <v>15.37</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.01</v>
+        <v>10.11</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.72</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.27</v>
+        <v>32.73</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.51</v>
+        <v>25.13</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.19</v>
+        <v>11.94</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>3.64</v>
+        <v>36.36</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.86</v>
+        <v>18.62</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.76</v>
+        <v>7.56</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.12</v>
+        <v>11.18</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.29</v>
+        <v>12.93</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.36</v>
+        <v>13.61</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.39</v>
+        <v>3.86</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.2</v>
+        <v>12.03</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.66</v>
+        <v>16.61</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.06</v>
+        <v>10.57</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.12</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.18</v>
+        <v>1.76</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>17.57</v>
+        <v>175.75</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.34</v>
+        <v>33.36</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.11</v>
+        <v>11.1</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.16</v>
+        <v>21.6</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.15</v>
+        <v>11.54</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.93</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.84</v>
+        <v>18.42</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.98</v>
+        <v>9.81</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.89</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.06</v>
+        <v>10.61</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.36</v>
+        <v>13.63</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.31</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.27</v>
+        <v>32.66</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.59</v>
+        <v>5.89</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.39</v>
+        <v>13.88</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44933.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.92</v>
+        <v>19.22</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.37</v>
+        <v>13.75</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.87</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.17</v>
+        <v>41.67</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.34</v>
+        <v>33.37</v>
       </c>
       <c r="G3" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>56.73</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>23.27</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>14.83</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>16.66</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>17.62</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>15.04</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>21.22</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>12.94</v>
+      </c>
+      <c r="R3" s="4" t="n">
         <v>1.5</v>
       </c>
-      <c r="H3" s="4" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.15</v>
-      </c>
       <c r="S3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.1</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>22.16</v>
+        <v>221.58</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>4.2</v>
+        <v>42.05</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.39</v>
+        <v>13.88</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.79</v>
+        <v>27.92</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.49</v>
+        <v>14.85</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.61</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.77</v>
+        <v>27.71</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.23</v>
+        <v>12.26</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.1</v>
+        <v>10.99</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.3</v>
+        <v>12.97</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.75</v>
+        <v>17.52</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.25</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>5.19</v>
+        <v>51.9</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.77</v>
+        <v>7.65</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.74</v>
+        <v>17.35</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44933.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.44</v>
+        <v>14.41</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.04</v>
+        <v>10.37</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.24</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.13</v>
+        <v>31.3</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.51</v>
+        <v>25.11</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.12</v>
+        <v>11.24</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>4.54</v>
+        <v>45.44</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.75</v>
+        <v>17.45</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.76</v>
+        <v>7.62</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.12</v>
+        <v>11.15</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.25</v>
+        <v>12.54</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.33</v>
+        <v>13.28</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.36</v>
+        <v>3.62</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.13</v>
+        <v>11.28</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.59</v>
+        <v>15.95</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.97</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.99</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.75</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>16.44</v>
+        <v>164.36</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.16</v>
+        <v>31.59</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.1</v>
+        <v>21.01</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.12</v>
+        <v>11.18</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.19</v>
+        <v>1.91</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.17</v>
+        <v>21.65</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.92</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.82</v>
+        <v>8.24</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.97</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.32</v>
+        <v>13.18</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>4.15</v>
+        <v>41.52</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.57</v>
+        <v>5.75</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.3</v>
+        <v>13.02</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44933.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.68</v>
+        <v>16.81</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.23</v>
+        <v>12.29</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.11</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.65</v>
+        <v>36.55</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.96</v>
+        <v>29.63</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.31</v>
+        <v>13.14</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>5.12</v>
+        <v>51.24</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.04</v>
+        <v>20.36</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.9</v>
+        <v>8.98</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.32</v>
+        <v>13.23</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.47</v>
+        <v>14.66</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.55</v>
+        <v>15.53</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.42</v>
+        <v>4.23</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.32</v>
+        <v>13.16</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.87</v>
+        <v>18.67</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.12</v>
+        <v>11.18</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.79</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>19.3</v>
+        <v>192.97</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.68</v>
+        <v>36.8</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.21</v>
+        <v>12.15</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.46</v>
+        <v>24.63</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.31</v>
+        <v>13.06</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.2</v>
+        <v>2.05</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.47</v>
+        <v>24.72</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.07</v>
+        <v>10.73</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.96</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.12</v>
+        <v>11.24</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.54</v>
+        <v>15.4</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.66</v>
+        <v>46.61</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.68</v>
+        <v>6.78</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.52</v>
+        <v>15.19</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_252.xlsx
+++ b/DATA_goal/Junction_Flooding_252.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44933.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>15.37</v>
+        <v>15.374</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>10.11</v>
+        <v>10.112</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.72</v>
+        <v>3.717</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>32.73</v>
+        <v>32.732</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>25.13</v>
+        <v>25.126</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>11.94</v>
+        <v>11.943</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>36.36</v>
+        <v>36.363</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>18.62</v>
+        <v>18.615</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>7.56</v>
+        <v>7.558</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>11.18</v>
+        <v>11.183</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>12.93</v>
+        <v>12.932</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>13.61</v>
+        <v>13.607</v>
       </c>
       <c r="N2" s="4" t="n">
         <v>3.86</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>12.03</v>
+        <v>12.031</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>16.61</v>
+        <v>16.608</v>
       </c>
       <c r="Q2" s="4" t="n">
         <v>10.57</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.12</v>
+        <v>3.118</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.76</v>
+        <v>1.764</v>
       </c>
       <c r="T2" s="4" t="n">
         <v>175.75</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>33.36</v>
+        <v>33.355</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>11.1</v>
+        <v>11.105</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>21.6</v>
+        <v>21.604</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>11.54</v>
+        <v>11.537</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.93</v>
+        <v>2.926</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>18.42</v>
+        <v>18.421</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>9.81</v>
+        <v>9.808999999999999</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>8.869999999999999</v>
+        <v>8.874000000000001</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>10.61</v>
+        <v>10.611</v>
       </c>
       <c r="AD2" s="4" t="n">
         <v>13.63</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.31</v>
+        <v>3.312</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>32.66</v>
+        <v>32.661</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>5.89</v>
+        <v>5.894</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>13.88</v>
+        <v>13.883</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44933.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>19.22</v>
+        <v>19.217</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>13.75</v>
+        <v>13.747</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>1.87</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>41.67</v>
+        <v>41.668</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>33.37</v>
+        <v>33.366</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>15</v>
+        <v>14.997</v>
       </c>
       <c r="H3" s="4" t="n">
         <v>56.73</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>23.27</v>
+        <v>23.269</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>10.1</v>
+        <v>10.104</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>14.83</v>
+        <v>14.833</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>16.66</v>
+        <v>16.661</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>17.62</v>
+        <v>17.616</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.83</v>
+        <v>4.831</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>15.04</v>
+        <v>15.038</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>21.22</v>
+        <v>21.219</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>12.94</v>
+        <v>12.938</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.5</v>
+        <v>1.495</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.1</v>
+        <v>1.105</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>221.58</v>
+        <v>221.584</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>42.05</v>
+        <v>42.047</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>13.88</v>
+        <v>13.881</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>27.92</v>
+        <v>27.922</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>14.85</v>
+        <v>14.854</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.61</v>
+        <v>2.615</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>27.71</v>
+        <v>27.714</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>12.26</v>
+        <v>12.261</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>10.99</v>
+        <v>10.987</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>12.97</v>
+        <v>12.966</v>
       </c>
       <c r="AD3" s="4" t="n">
         <v>17.52</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.25</v>
+        <v>1.246</v>
       </c>
       <c r="AF3" s="4" t="n">
         <v>51.9</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>7.65</v>
+        <v>7.652</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>17.35</v>
+        <v>17.354</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44933.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>14.41</v>
+        <v>14.413</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>10.37</v>
+        <v>10.374</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.24</v>
+        <v>1.241</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>31.3</v>
+        <v>31.297</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>25.11</v>
+        <v>25.114</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>11.24</v>
+        <v>11.237</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>45.44</v>
+        <v>45.444</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>17.45</v>
+        <v>17.452</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>7.62</v>
+        <v>7.622</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>11.15</v>
+        <v>11.152</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>12.54</v>
+        <v>12.537</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>13.28</v>
+        <v>13.279</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.62</v>
+        <v>3.624</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>11.28</v>
+        <v>11.279</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>15.95</v>
+        <v>15.945</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>9.699999999999999</v>
+        <v>9.702999999999999</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.99</v>
+        <v>0.992</v>
       </c>
       <c r="S4" s="4" t="n">
         <v>0.75</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>164.36</v>
+        <v>164.361</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>31.59</v>
+        <v>31.594</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>10.41</v>
+        <v>10.411</v>
       </c>
       <c r="W4" s="4" t="n">
         <v>21.01</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>11.18</v>
+        <v>11.176</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.91</v>
+        <v>1.907</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>21.65</v>
+        <v>21.655</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>9.199999999999999</v>
+        <v>9.196</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>8.24</v>
+        <v>8.242000000000001</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>9.710000000000001</v>
+        <v>9.706</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>13.18</v>
+        <v>13.176</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>41.52</v>
+        <v>41.521</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>5.75</v>
+        <v>5.749</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>13.02</v>
+        <v>13.016</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>15.19</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44933.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>13.57</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>10.74</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>4.84</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>23.25</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>4.72</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>5.44</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>6.92</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>67.09999999999999</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>13.87</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>9.18</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>4.87</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>21.51</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>5.64</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_252.xlsx
+++ b/DATA_goal/Junction_Flooding_252.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44933.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>16.81</v>
+        <v>16.815</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>12.29</v>
+        <v>12.295</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.11</v>
+        <v>1.112</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>36.55</v>
+        <v>36.548</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>29.63</v>
+        <v>29.629</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>13.14</v>
+        <v>13.141</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>51.24</v>
+        <v>51.245</v>
       </c>
       <c r="I5" s="4" t="n">
         <v>20.36</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.98</v>
+        <v>8.983000000000001</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>13.23</v>
+        <v>13.228</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>14.66</v>
+        <v>14.657</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>15.53</v>
+        <v>15.534</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.23</v>
+        <v>4.227</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>13.16</v>
+        <v>13.159</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>18.67</v>
+        <v>18.673</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>11.18</v>
+        <v>11.184</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.79</v>
+        <v>0.791</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.73</v>
+        <v>0.725</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>192.97</v>
+        <v>192.967</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>36.8</v>
+        <v>36.796</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>12.15</v>
+        <v>12.146</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>24.63</v>
+        <v>24.628</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>13.06</v>
+        <v>13.059</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.05</v>
+        <v>2.048</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>24.72</v>
+        <v>24.715</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>10.73</v>
+        <v>10.728</v>
       </c>
       <c r="AB5" s="4" t="n">
         <v>9.550000000000001</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>11.24</v>
+        <v>11.238</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>15.4</v>
+        <v>15.404</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.553</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>46.61</v>
+        <v>46.612</v>
       </c>
       <c r="AG5" s="4" t="n">
         <v>6.78</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>15.19</v>
+        <v>15.185</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44933.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>13.57</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>10.74</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>6.92</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>13.87</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>9.18</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>21.51</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>5.64</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_252.xlsx
+++ b/DATA_goal/Junction_Flooding_252.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44933.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>16.815</v>
+        <v>16.81</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>12.295</v>
+        <v>12.29</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.112</v>
+        <v>1.11</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>36.548</v>
+        <v>36.55</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>29.629</v>
+        <v>29.63</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>13.141</v>
+        <v>13.14</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>51.245</v>
+        <v>51.24</v>
       </c>
       <c r="I5" s="4" t="n">
         <v>20.36</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.983000000000001</v>
+        <v>8.98</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>13.228</v>
+        <v>13.23</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>14.657</v>
+        <v>14.66</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>15.534</v>
+        <v>15.53</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.227</v>
+        <v>4.23</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>13.159</v>
+        <v>13.16</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>18.673</v>
+        <v>18.67</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>11.184</v>
+        <v>11.18</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.791</v>
+        <v>0.79</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.725</v>
+        <v>0.73</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>192.967</v>
+        <v>192.97</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>36.796</v>
+        <v>36.8</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>12.146</v>
+        <v>12.15</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>24.628</v>
+        <v>24.63</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>13.059</v>
+        <v>13.06</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.048</v>
+        <v>2.05</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>24.715</v>
+        <v>24.72</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>10.728</v>
+        <v>10.73</v>
       </c>
       <c r="AB5" s="4" t="n">
         <v>9.550000000000001</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>11.238</v>
+        <v>11.24</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>15.404</v>
+        <v>15.4</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.553</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>46.612</v>
+        <v>46.61</v>
       </c>
       <c r="AG5" s="4" t="n">
         <v>6.78</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>15.185</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44933.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>13.57</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>10.74</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>4.84</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>23.25</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>4.72</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>5.44</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>6.92</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>67.09999999999999</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>13.87</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>9.18</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>4.87</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>21.51</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>5.64</v>
+        <v>15.19</v>
       </c>
     </row>
   </sheetData>
